--- a/data/pca/factorExposure/factorExposure_2009-01-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01653400602457371</v>
+        <v>0.0150853231499089</v>
       </c>
       <c r="C2">
-        <v>-0.01053773793657809</v>
+        <v>0.01191240401590222</v>
       </c>
       <c r="D2">
-        <v>0.01451858627950664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01437287454158136</v>
+      </c>
+      <c r="E2">
+        <v>0.0003909029944333913</v>
+      </c>
+      <c r="F2">
+        <v>-0.008551244535850093</v>
+      </c>
+      <c r="G2">
+        <v>-0.0173451386819574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08148015370024367</v>
+        <v>0.08387114298124307</v>
       </c>
       <c r="C4">
-        <v>-0.08043196623253845</v>
+        <v>0.08710377652860696</v>
       </c>
       <c r="D4">
-        <v>-0.06547592915688615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06598679719178202</v>
+      </c>
+      <c r="E4">
+        <v>-0.005127006292592912</v>
+      </c>
+      <c r="F4">
+        <v>-0.03870310012490639</v>
+      </c>
+      <c r="G4">
+        <v>-0.03201365304890052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.003086078744687344</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.002016295336461956</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.001463036861621522</v>
+      </c>
+      <c r="E5">
+        <v>0.002918865071461109</v>
+      </c>
+      <c r="F5">
+        <v>0.00295364735673081</v>
+      </c>
+      <c r="G5">
+        <v>0.00243460145582477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1679705598233794</v>
+        <v>0.170219851886309</v>
       </c>
       <c r="C6">
-        <v>0.01764109117733964</v>
+        <v>-0.009193094725333429</v>
       </c>
       <c r="D6">
-        <v>-0.05675347861172977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05821864537066187</v>
+      </c>
+      <c r="E6">
+        <v>-0.02550378864534654</v>
+      </c>
+      <c r="F6">
+        <v>0.05479810303701043</v>
+      </c>
+      <c r="G6">
+        <v>0.01050741440206568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05506820677320763</v>
+        <v>0.05935636228459874</v>
       </c>
       <c r="C7">
-        <v>-0.05853194755991135</v>
+        <v>0.06310216804525834</v>
       </c>
       <c r="D7">
-        <v>-0.04573801315261294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05277875239524958</v>
+      </c>
+      <c r="E7">
+        <v>-0.04041084205461455</v>
+      </c>
+      <c r="F7">
+        <v>-0.06880840665472591</v>
+      </c>
+      <c r="G7">
+        <v>-0.04475983481385565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05429376213603621</v>
+        <v>0.0509728480643981</v>
       </c>
       <c r="C8">
-        <v>-0.04359978582347485</v>
+        <v>0.04505806199062116</v>
       </c>
       <c r="D8">
-        <v>0.02328308672962014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02528851502886823</v>
+      </c>
+      <c r="E8">
+        <v>0.02413407673729862</v>
+      </c>
+      <c r="F8">
+        <v>-0.04698659934995367</v>
+      </c>
+      <c r="G8">
+        <v>0.0004161672465803871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06081017025928068</v>
+        <v>0.0644904166353294</v>
       </c>
       <c r="C9">
-        <v>-0.08696800686815701</v>
+        <v>0.09130085182634266</v>
       </c>
       <c r="D9">
-        <v>-0.09110744883148517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0880947129330155</v>
+      </c>
+      <c r="E9">
+        <v>-0.01086459011521652</v>
+      </c>
+      <c r="F9">
+        <v>-0.06579140255826466</v>
+      </c>
+      <c r="G9">
+        <v>-0.007112685989693428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1093899162265615</v>
+        <v>0.1012725942551304</v>
       </c>
       <c r="C10">
-        <v>0.1461135803956463</v>
+        <v>-0.1384449260799659</v>
       </c>
       <c r="D10">
-        <v>0.1065576293065228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09710062275288597</v>
+      </c>
+      <c r="E10">
+        <v>0.006578492458645391</v>
+      </c>
+      <c r="F10">
+        <v>-0.03616751292420242</v>
+      </c>
+      <c r="G10">
+        <v>0.01133063797424575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07911030519736742</v>
+        <v>0.07710392215856202</v>
       </c>
       <c r="C11">
-        <v>-0.1291814591054943</v>
+        <v>0.1294326898540772</v>
       </c>
       <c r="D11">
-        <v>-0.05902899601841605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0504381543968457</v>
+      </c>
+      <c r="E11">
+        <v>0.01980976471702064</v>
+      </c>
+      <c r="F11">
+        <v>-0.07656149863093685</v>
+      </c>
+      <c r="G11">
+        <v>-0.00839587107091398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08276215718259103</v>
+        <v>0.07886126035769499</v>
       </c>
       <c r="C12">
-        <v>-0.1481742803278168</v>
+        <v>0.1497755082781432</v>
       </c>
       <c r="D12">
-        <v>-0.06190877537021934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0584187533987223</v>
+      </c>
+      <c r="E12">
+        <v>0.01221084318168779</v>
+      </c>
+      <c r="F12">
+        <v>-0.08246569086678157</v>
+      </c>
+      <c r="G12">
+        <v>-0.01239307391229891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04203004774381483</v>
+        <v>0.04247342654275925</v>
       </c>
       <c r="C13">
-        <v>-0.06542921039281593</v>
+        <v>0.07217288070186977</v>
       </c>
       <c r="D13">
-        <v>-0.03099907306417828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03016067490041763</v>
+      </c>
+      <c r="E13">
+        <v>-0.003316850004696921</v>
+      </c>
+      <c r="F13">
+        <v>-0.07698491403117376</v>
+      </c>
+      <c r="G13">
+        <v>-0.01387356385985341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0194885548037192</v>
+        <v>0.02305368389273344</v>
       </c>
       <c r="C14">
-        <v>-0.04265318200004957</v>
+        <v>0.04311736191511505</v>
       </c>
       <c r="D14">
-        <v>-0.05059558734033223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04781060174961958</v>
+      </c>
+      <c r="E14">
+        <v>0.01582180127827081</v>
+      </c>
+      <c r="F14">
+        <v>-0.08074214529611436</v>
+      </c>
+      <c r="G14">
+        <v>0.001824997764293328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03148598964311478</v>
+        <v>0.03375184059739258</v>
       </c>
       <c r="C15">
-        <v>-0.05653561112250448</v>
+        <v>0.05586415684496618</v>
       </c>
       <c r="D15">
-        <v>-0.04549693727747573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04108203847149167</v>
+      </c>
+      <c r="E15">
+        <v>-0.01035700957545056</v>
+      </c>
+      <c r="F15">
+        <v>-0.03382140841876807</v>
+      </c>
+      <c r="G15">
+        <v>0.01005224017066879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05767587234912805</v>
+        <v>0.05790175567721401</v>
       </c>
       <c r="C16">
-        <v>-0.1441934259680272</v>
+        <v>0.1445904316329558</v>
       </c>
       <c r="D16">
-        <v>-0.07171096505477494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06351895780888613</v>
+      </c>
+      <c r="E16">
+        <v>0.03669920936559874</v>
+      </c>
+      <c r="F16">
+        <v>-0.07533557254328464</v>
+      </c>
+      <c r="G16">
+        <v>-0.01205113432196258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.005312764068929993</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004395728802771361</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.0001731140275791481</v>
+      </c>
+      <c r="E17">
+        <v>0.009223250654697127</v>
+      </c>
+      <c r="F17">
+        <v>0.005759692488187244</v>
+      </c>
+      <c r="G17">
+        <v>0.01463751446699803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03576697649728999</v>
+        <v>0.05166144697335648</v>
       </c>
       <c r="C18">
-        <v>-0.04502246216748707</v>
+        <v>0.04069225880540239</v>
       </c>
       <c r="D18">
-        <v>0.004396887541655264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.009114156190609851</v>
+      </c>
+      <c r="E18">
+        <v>0.004138012041641206</v>
+      </c>
+      <c r="F18">
+        <v>0.04882536463025702</v>
+      </c>
+      <c r="G18">
+        <v>0.01360370465211851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05592187057844143</v>
+        <v>0.05660831044217832</v>
       </c>
       <c r="C20">
-        <v>-0.09338503089567586</v>
+        <v>0.09290573887839455</v>
       </c>
       <c r="D20">
-        <v>-0.08021609293083005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07605773999777592</v>
+      </c>
+      <c r="E20">
+        <v>0.01830541360999263</v>
+      </c>
+      <c r="F20">
+        <v>-0.07465076286941695</v>
+      </c>
+      <c r="G20">
+        <v>0.001748209648538899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04352928445185184</v>
+        <v>0.04536789461629426</v>
       </c>
       <c r="C21">
-        <v>-0.05822451539359944</v>
+        <v>0.05660921808700707</v>
       </c>
       <c r="D21">
-        <v>-0.004287412763609031</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.002846345619901633</v>
+      </c>
+      <c r="E21">
+        <v>-0.0007495486303930552</v>
+      </c>
+      <c r="F21">
+        <v>-0.07310263763660699</v>
+      </c>
+      <c r="G21">
+        <v>-0.02339221968290165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04579335676931065</v>
+        <v>0.0443907992464472</v>
       </c>
       <c r="C22">
-        <v>-0.02195111845304198</v>
+        <v>0.02415835231080926</v>
       </c>
       <c r="D22">
-        <v>0.01434290866293913</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03314597488363256</v>
+      </c>
+      <c r="E22">
+        <v>0.1340179680494511</v>
+      </c>
+      <c r="F22">
+        <v>0.03911903473578573</v>
+      </c>
+      <c r="G22">
+        <v>0.0002504183301165412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04580280510687217</v>
+        <v>0.04439883186419272</v>
       </c>
       <c r="C23">
-        <v>-0.02194340270310271</v>
+        <v>0.02415166607368666</v>
       </c>
       <c r="D23">
-        <v>0.01436786931430666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03317328939859102</v>
+      </c>
+      <c r="E23">
+        <v>0.1340544677523971</v>
+      </c>
+      <c r="F23">
+        <v>0.03911372039634279</v>
+      </c>
+      <c r="G23">
+        <v>0.0002878474070528965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06706600638691483</v>
+        <v>0.06651162542761137</v>
       </c>
       <c r="C24">
-        <v>-0.1373920652315106</v>
+        <v>0.1361837010945102</v>
       </c>
       <c r="D24">
-        <v>-0.06322570284034837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05723830404514751</v>
+      </c>
+      <c r="E24">
+        <v>0.01439759193433447</v>
+      </c>
+      <c r="F24">
+        <v>-0.07370930893861077</v>
+      </c>
+      <c r="G24">
+        <v>-0.012552598160328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07261002687370122</v>
+        <v>0.07095075118621597</v>
       </c>
       <c r="C25">
-        <v>-0.1212885153553546</v>
+        <v>0.120086770897396</v>
       </c>
       <c r="D25">
-        <v>-0.04651848460271029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03815384809388457</v>
+      </c>
+      <c r="E25">
+        <v>-0.01348949362652202</v>
+      </c>
+      <c r="F25">
+        <v>-0.08998526936036298</v>
+      </c>
+      <c r="G25">
+        <v>-0.01764007062754202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05610686591128478</v>
+        <v>0.06080715981405954</v>
       </c>
       <c r="C26">
-        <v>-0.06740174722303922</v>
+        <v>0.0684019229538327</v>
       </c>
       <c r="D26">
-        <v>-0.02703008581112212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02291251366968206</v>
+      </c>
+      <c r="E26">
+        <v>0.01548853699480036</v>
+      </c>
+      <c r="F26">
+        <v>-0.07931848184406798</v>
+      </c>
+      <c r="G26">
+        <v>0.000648485888035977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1706063366748772</v>
+        <v>0.172948744277571</v>
       </c>
       <c r="C28">
-        <v>0.2279757837366758</v>
+        <v>-0.2287601534968113</v>
       </c>
       <c r="D28">
-        <v>0.02235069413745924</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02928399186514824</v>
+      </c>
+      <c r="E28">
+        <v>-0.05827419130157824</v>
+      </c>
+      <c r="F28">
+        <v>-0.1359340728378646</v>
+      </c>
+      <c r="G28">
+        <v>0.001097452809035471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02356389725498594</v>
+        <v>0.02681374602753581</v>
       </c>
       <c r="C29">
-        <v>-0.0456640867139733</v>
+        <v>0.04369648808363152</v>
       </c>
       <c r="D29">
-        <v>-0.01164067440082773</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009271518782368256</v>
+      </c>
+      <c r="E29">
+        <v>0.03047458739538443</v>
+      </c>
+      <c r="F29">
+        <v>-0.07461832996399896</v>
+      </c>
+      <c r="G29">
+        <v>-0.002019609910852328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03972812209497571</v>
+        <v>0.0419189715407171</v>
       </c>
       <c r="C30">
-        <v>-0.06956372980400102</v>
+        <v>0.07678513690361181</v>
       </c>
       <c r="D30">
-        <v>-0.1210577070299739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1057761412260444</v>
+      </c>
+      <c r="E30">
+        <v>-0.06716497034922059</v>
+      </c>
+      <c r="F30">
+        <v>-0.08608565880038808</v>
+      </c>
+      <c r="G30">
+        <v>0.01859388980389227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05210813806738532</v>
+        <v>0.05154923342685824</v>
       </c>
       <c r="C31">
-        <v>-0.03181350947088522</v>
+        <v>0.03489695818434163</v>
       </c>
       <c r="D31">
-        <v>-0.01367988453210272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01688667217354949</v>
+      </c>
+      <c r="E31">
+        <v>0.03608087573870162</v>
+      </c>
+      <c r="F31">
+        <v>-0.01468558134307025</v>
+      </c>
+      <c r="G31">
+        <v>-0.02492293461320455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04303980942917352</v>
+        <v>0.04773908482272006</v>
       </c>
       <c r="C32">
-        <v>-0.04799517166009256</v>
+        <v>0.04504137713960132</v>
       </c>
       <c r="D32">
-        <v>-0.0203273351624383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02166170321530731</v>
+      </c>
+      <c r="E32">
+        <v>0.02838834467334167</v>
+      </c>
+      <c r="F32">
+        <v>-0.005791516828485169</v>
+      </c>
+      <c r="G32">
+        <v>0.00744373919405647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07861788234410784</v>
+        <v>0.08243203950300666</v>
       </c>
       <c r="C33">
-        <v>-0.1071766098344973</v>
+        <v>0.1174295613338232</v>
       </c>
       <c r="D33">
-        <v>-0.06633000380753611</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06845736822132785</v>
+      </c>
+      <c r="E33">
+        <v>0.02032517186198943</v>
+      </c>
+      <c r="F33">
+        <v>-0.07702878676641545</v>
+      </c>
+      <c r="G33">
+        <v>-0.005430179869865567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05508928283821129</v>
+        <v>0.05503972949116824</v>
       </c>
       <c r="C34">
-        <v>-0.1220470722980245</v>
+        <v>0.1241186591205424</v>
       </c>
       <c r="D34">
-        <v>-0.08170599005215641</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06712730025720728</v>
+      </c>
+      <c r="E34">
+        <v>-0.01924982347639452</v>
+      </c>
+      <c r="F34">
+        <v>-0.09038424675723947</v>
+      </c>
+      <c r="G34">
+        <v>0.01733836970820032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02755488429694455</v>
+        <v>0.02943336685802703</v>
       </c>
       <c r="C35">
-        <v>-0.01584707590996681</v>
+        <v>0.01718287512677272</v>
       </c>
       <c r="D35">
-        <v>-0.027011308137747</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02191127988756884</v>
+      </c>
+      <c r="E35">
+        <v>0.02390176560530234</v>
+      </c>
+      <c r="F35">
+        <v>-0.03505494610542598</v>
+      </c>
+      <c r="G35">
+        <v>0.0268612252263941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02261464519268497</v>
+        <v>0.02734038150767246</v>
       </c>
       <c r="C36">
-        <v>-0.04701325329389278</v>
+        <v>0.04781018166753913</v>
       </c>
       <c r="D36">
-        <v>-0.06541519040730746</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.05740495733654492</v>
+      </c>
+      <c r="E36">
+        <v>0.01732197548487485</v>
+      </c>
+      <c r="F36">
+        <v>-0.03763597126071133</v>
+      </c>
+      <c r="G36">
+        <v>0.07973398263810742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003567620454713771</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006379615643846493</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0008722358292729675</v>
+      </c>
+      <c r="E37">
+        <v>0.001988556486120606</v>
+      </c>
+      <c r="F37">
+        <v>-0.01041462345026923</v>
+      </c>
+      <c r="G37">
+        <v>-0.00690728046210129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08446942839826123</v>
+        <v>0.07883886560767372</v>
       </c>
       <c r="C39">
-        <v>-0.1524667893229717</v>
+        <v>0.1479253060843009</v>
       </c>
       <c r="D39">
-        <v>-0.04515040184224708</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.0384382477072965</v>
+      </c>
+      <c r="E39">
+        <v>0.0210879343696613</v>
+      </c>
+      <c r="F39">
+        <v>-0.1209090757838088</v>
+      </c>
+      <c r="G39">
+        <v>-0.05200700190140004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04609241471053751</v>
+        <v>0.05064731924968985</v>
       </c>
       <c r="C40">
-        <v>-0.06147241640406331</v>
+        <v>0.06661640800906488</v>
       </c>
       <c r="D40">
-        <v>-0.01693710495619317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.005612751996402404</v>
+      </c>
+      <c r="E40">
+        <v>0.01322035162281478</v>
+      </c>
+      <c r="F40">
+        <v>-0.05895912061036768</v>
+      </c>
+      <c r="G40">
+        <v>0.04141308199032115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02654277680600339</v>
+        <v>0.02843335458371352</v>
       </c>
       <c r="C41">
-        <v>-0.02089136958624617</v>
+        <v>0.02169870355639367</v>
       </c>
       <c r="D41">
-        <v>0.007642565065708131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006662656139617885</v>
+      </c>
+      <c r="E41">
+        <v>0.008162660248524328</v>
+      </c>
+      <c r="F41">
+        <v>0.01166155060003551</v>
+      </c>
+      <c r="G41">
+        <v>0.0131244427775815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04264713403355714</v>
+        <v>0.0420404180231255</v>
       </c>
       <c r="C43">
-        <v>-0.03923134127864519</v>
+        <v>0.03645972852956467</v>
       </c>
       <c r="D43">
-        <v>-0.003096980683479579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0006137651692450259</v>
+      </c>
+      <c r="E43">
+        <v>0.03354294033862684</v>
+      </c>
+      <c r="F43">
+        <v>-0.02107094067163109</v>
+      </c>
+      <c r="G43">
+        <v>-0.001988587261971126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05612035104241263</v>
+        <v>0.06409118535779344</v>
       </c>
       <c r="C44">
-        <v>-0.07854225049602485</v>
+        <v>0.08524869538509856</v>
       </c>
       <c r="D44">
-        <v>-0.2788464828568149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.255088731826143</v>
+      </c>
+      <c r="E44">
+        <v>-0.04349685035441989</v>
+      </c>
+      <c r="F44">
+        <v>-0.1754436223674185</v>
+      </c>
+      <c r="G44">
+        <v>0.1642829946809294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002246991345433867</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0003565008509603917</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.001500785026306764</v>
+      </c>
+      <c r="E45">
+        <v>-0.001186765499745766</v>
+      </c>
+      <c r="F45">
+        <v>-0.0006288283328683264</v>
+      </c>
+      <c r="G45">
+        <v>-0.005081263367324518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02762315268599462</v>
+        <v>0.02777100841861676</v>
       </c>
       <c r="C46">
-        <v>-0.03261197527153371</v>
+        <v>0.03135442721909225</v>
       </c>
       <c r="D46">
-        <v>-0.0138214550824673</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0124613899302046</v>
+      </c>
+      <c r="E46">
+        <v>0.04684145953058737</v>
+      </c>
+      <c r="F46">
+        <v>-0.06392748133285726</v>
+      </c>
+      <c r="G46">
+        <v>-0.03139286798077351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05153334691450529</v>
+        <v>0.05098487155351203</v>
       </c>
       <c r="C47">
-        <v>-0.02284164175244376</v>
+        <v>0.02604811019412966</v>
       </c>
       <c r="D47">
-        <v>0.01892269079962646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01060858226531159</v>
+      </c>
+      <c r="E47">
+        <v>0.05876661057502751</v>
+      </c>
+      <c r="F47">
+        <v>0.01508164736205204</v>
+      </c>
+      <c r="G47">
+        <v>-0.03048202665432426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04680711710887055</v>
+        <v>0.05014761986184555</v>
       </c>
       <c r="C48">
-        <v>-0.06775417103441247</v>
+        <v>0.06682707090631695</v>
       </c>
       <c r="D48">
-        <v>-0.02412484847834574</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02120046830418303</v>
+      </c>
+      <c r="E48">
+        <v>-0.01403487301024554</v>
+      </c>
+      <c r="F48">
+        <v>-0.05702949471348686</v>
+      </c>
+      <c r="G48">
+        <v>-0.02466341309240037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1947245245757639</v>
+        <v>0.1978906433123236</v>
       </c>
       <c r="C49">
-        <v>0.008535399726543097</v>
+        <v>-0.002263994697434378</v>
       </c>
       <c r="D49">
-        <v>-0.03105961939686135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03839679413239902</v>
+      </c>
+      <c r="E49">
+        <v>-0.03512210103657382</v>
+      </c>
+      <c r="F49">
+        <v>0.05464978949596769</v>
+      </c>
+      <c r="G49">
+        <v>-0.0004135358818208493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0504099578185622</v>
+        <v>0.05196230690466291</v>
       </c>
       <c r="C50">
-        <v>-0.02939057793044212</v>
+        <v>0.03230749860661408</v>
       </c>
       <c r="D50">
-        <v>-0.02178774798181314</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02615364473309473</v>
+      </c>
+      <c r="E50">
+        <v>0.02494210826171001</v>
+      </c>
+      <c r="F50">
+        <v>-0.007819721715134032</v>
+      </c>
+      <c r="G50">
+        <v>-0.0241340078194371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1445588426007014</v>
+        <v>0.1378954569958873</v>
       </c>
       <c r="C52">
-        <v>-0.03539318535727137</v>
+        <v>0.03515999929171371</v>
       </c>
       <c r="D52">
-        <v>-0.05660143878435893</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.05699580362805921</v>
+      </c>
+      <c r="E52">
+        <v>0.02105102267840926</v>
+      </c>
+      <c r="F52">
+        <v>0.07126378405931097</v>
+      </c>
+      <c r="G52">
+        <v>-0.02967542885524095</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1748419362792243</v>
+        <v>0.1658398816812393</v>
       </c>
       <c r="C53">
-        <v>-0.0017288508550835</v>
+        <v>0.004863864856211284</v>
       </c>
       <c r="D53">
-        <v>-0.09818959392300364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1057588759855156</v>
+      </c>
+      <c r="E53">
+        <v>0.00834557084806652</v>
+      </c>
+      <c r="F53">
+        <v>0.1144598662562934</v>
+      </c>
+      <c r="G53">
+        <v>-0.06081045197901611</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01018333377410837</v>
+        <v>0.01425642410845331</v>
       </c>
       <c r="C54">
-        <v>-0.03021119226969161</v>
+        <v>0.03156632884244403</v>
       </c>
       <c r="D54">
-        <v>-0.01344559582214876</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01360249747014431</v>
+      </c>
+      <c r="E54">
+        <v>0.02265610398611124</v>
+      </c>
+      <c r="F54">
+        <v>-0.04619170252838508</v>
+      </c>
+      <c r="G54">
+        <v>-0.004402511122603557</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1211600251427681</v>
+        <v>0.11752861909452</v>
       </c>
       <c r="C55">
-        <v>-0.005885614329691105</v>
+        <v>0.01171651829118099</v>
       </c>
       <c r="D55">
-        <v>-0.06457872888053194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0688518766754289</v>
+      </c>
+      <c r="E55">
+        <v>0.04640177411078986</v>
+      </c>
+      <c r="F55">
+        <v>0.04019118400039928</v>
+      </c>
+      <c r="G55">
+        <v>-0.06606564858930139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1814692338875931</v>
+        <v>0.1735082066381746</v>
       </c>
       <c r="C56">
-        <v>0.006367919508974828</v>
+        <v>-0.005363693117157197</v>
       </c>
       <c r="D56">
-        <v>-0.04538472891307053</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05726375672718659</v>
+      </c>
+      <c r="E56">
+        <v>0.0331759341399585</v>
+      </c>
+      <c r="F56">
+        <v>0.1519844385630113</v>
+      </c>
+      <c r="G56">
+        <v>-0.06360470694583133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04404574773816514</v>
+        <v>0.04437127615598908</v>
       </c>
       <c r="C58">
-        <v>-0.09334826979177251</v>
+        <v>0.1008626225746425</v>
       </c>
       <c r="D58">
-        <v>0.002306281027372024</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.003548096238667945</v>
+      </c>
+      <c r="E58">
+        <v>0.04827898761196196</v>
+      </c>
+      <c r="F58">
+        <v>-0.04382918072041624</v>
+      </c>
+      <c r="G58">
+        <v>-0.02459888827180517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1874885639995385</v>
+        <v>0.1903550893999905</v>
       </c>
       <c r="C59">
-        <v>0.178037518650881</v>
+        <v>-0.1819437972528401</v>
       </c>
       <c r="D59">
-        <v>0.08159681282369678</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.08215979634555841</v>
+      </c>
+      <c r="E59">
+        <v>0.01311031765080578</v>
+      </c>
+      <c r="F59">
+        <v>-0.05113852262847781</v>
+      </c>
+      <c r="G59">
+        <v>-0.03895970762172482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2149393183221929</v>
+        <v>0.2097333492589789</v>
       </c>
       <c r="C60">
-        <v>-0.0111025342590862</v>
+        <v>0.01795192327929848</v>
       </c>
       <c r="D60">
-        <v>0.06449820639903928</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04353244485354042</v>
+      </c>
+      <c r="E60">
+        <v>0.0030279551525651</v>
+      </c>
+      <c r="F60">
+        <v>0.2070735940371726</v>
+      </c>
+      <c r="G60">
+        <v>-0.08273870065808522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06503704851593102</v>
+        <v>0.06234115784560828</v>
       </c>
       <c r="C61">
-        <v>-0.1231640798988288</v>
+        <v>0.1209271767073203</v>
       </c>
       <c r="D61">
-        <v>-0.03582921558301532</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0299357927853104</v>
+      </c>
+      <c r="E61">
+        <v>0.03226819553087591</v>
+      </c>
+      <c r="F61">
+        <v>-0.07942204849716582</v>
+      </c>
+      <c r="G61">
+        <v>-0.02528346278926741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1686831708251436</v>
+        <v>0.1648632256624198</v>
       </c>
       <c r="C62">
-        <v>0.01093911000784103</v>
+        <v>-0.00802406153132996</v>
       </c>
       <c r="D62">
-        <v>-0.03651853871801205</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.05078865398998584</v>
+      </c>
+      <c r="E62">
+        <v>0.03446406632183938</v>
+      </c>
+      <c r="F62">
+        <v>0.1221766644263669</v>
+      </c>
+      <c r="G62">
+        <v>-0.05849823352506648</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0377539227682367</v>
+        <v>0.04317286836788192</v>
       </c>
       <c r="C63">
-        <v>-0.06845794035266979</v>
+        <v>0.07174481860021192</v>
       </c>
       <c r="D63">
-        <v>-0.02871576554001213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02369578866341275</v>
+      </c>
+      <c r="E63">
+        <v>0.03209403815362018</v>
+      </c>
+      <c r="F63">
+        <v>-0.05041555426711374</v>
+      </c>
+      <c r="G63">
+        <v>0.02393877080754504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1114113326673532</v>
+        <v>0.1098102413125626</v>
       </c>
       <c r="C64">
-        <v>-0.04979664802623731</v>
+        <v>0.0539021830932515</v>
       </c>
       <c r="D64">
-        <v>-0.03543992482047436</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03810658583992908</v>
+      </c>
+      <c r="E64">
+        <v>0.01437532351050532</v>
+      </c>
+      <c r="F64">
+        <v>0.03880347876911388</v>
+      </c>
+      <c r="G64">
+        <v>-0.0006427678460984029</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1562439679163989</v>
+        <v>0.1598552561906143</v>
       </c>
       <c r="C65">
-        <v>0.05903737299171809</v>
+        <v>-0.04883011393476605</v>
       </c>
       <c r="D65">
-        <v>-0.0483970518136627</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05365049591465536</v>
+      </c>
+      <c r="E65">
+        <v>-0.01224430257023156</v>
+      </c>
+      <c r="F65">
+        <v>0.0123786396904567</v>
+      </c>
+      <c r="G65">
+        <v>-0.02054576068460878</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1024229477940129</v>
+        <v>0.09565250808663942</v>
       </c>
       <c r="C66">
-        <v>-0.1309048305501977</v>
+        <v>0.1307867921818569</v>
       </c>
       <c r="D66">
-        <v>-0.04818453096931614</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0373956585017809</v>
+      </c>
+      <c r="E66">
+        <v>0.01334945210793135</v>
+      </c>
+      <c r="F66">
+        <v>-0.1013425492944763</v>
+      </c>
+      <c r="G66">
+        <v>-0.004784709706486873</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05827903985950472</v>
+        <v>0.04912115171843982</v>
       </c>
       <c r="C67">
-        <v>-0.08006139978098298</v>
+        <v>0.07358025907136893</v>
       </c>
       <c r="D67">
-        <v>0.04858962818484954</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.04879178328939487</v>
+      </c>
+      <c r="E67">
+        <v>0.08463695765942178</v>
+      </c>
+      <c r="F67">
+        <v>0.04157425178924088</v>
+      </c>
+      <c r="G67">
+        <v>0.001996102413261473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.138919352830808</v>
+        <v>0.1416227719225659</v>
       </c>
       <c r="C68">
-        <v>0.2470991278330082</v>
+        <v>-0.2498961470264692</v>
       </c>
       <c r="D68">
-        <v>0.04598815113923999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.04797326535152015</v>
+      </c>
+      <c r="E68">
+        <v>-0.1009368828065571</v>
+      </c>
+      <c r="F68">
+        <v>-0.1238543063735799</v>
+      </c>
+      <c r="G68">
+        <v>-0.02862989879888818</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03876849870449218</v>
+        <v>0.03824930106497488</v>
       </c>
       <c r="C69">
-        <v>-0.01203234541784205</v>
+        <v>0.01413598093098146</v>
       </c>
       <c r="D69">
-        <v>-0.009689794823471194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01302085834999404</v>
+      </c>
+      <c r="E69">
+        <v>0.06100838359358995</v>
+      </c>
+      <c r="F69">
+        <v>0.04569887201878786</v>
+      </c>
+      <c r="G69">
+        <v>0.02382587073147334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07054655899045136</v>
+        <v>0.07164269202324999</v>
       </c>
       <c r="C70">
-        <v>-0.0798796061091388</v>
+        <v>0.07568036896121963</v>
       </c>
       <c r="D70">
-        <v>0.517399300211806</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.4098715904029058</v>
+      </c>
+      <c r="E70">
+        <v>0.2098202727462215</v>
+      </c>
+      <c r="F70">
+        <v>0.3904602009790272</v>
+      </c>
+      <c r="G70">
+        <v>-0.4199298252376787</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1618926762096358</v>
+        <v>0.1657407678283159</v>
       </c>
       <c r="C71">
-        <v>0.2537472974272826</v>
+        <v>-0.2535752369441418</v>
       </c>
       <c r="D71">
-        <v>0.04659414862896126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.05111336461860389</v>
+      </c>
+      <c r="E71">
+        <v>-0.1098708152009652</v>
+      </c>
+      <c r="F71">
+        <v>-0.124733715776106</v>
+      </c>
+      <c r="G71">
+        <v>-0.02927587562053409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1438624350545187</v>
+        <v>0.1490978254343868</v>
       </c>
       <c r="C72">
-        <v>-0.01093952724347129</v>
+        <v>0.00802128528900993</v>
       </c>
       <c r="D72">
-        <v>-0.07310660486912128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0659410612398714</v>
+      </c>
+      <c r="E72">
+        <v>0.04177271509197278</v>
+      </c>
+      <c r="F72">
+        <v>0.02662578006473706</v>
+      </c>
+      <c r="G72">
+        <v>0.01239953681059566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1910733853107708</v>
+        <v>0.199172446455005</v>
       </c>
       <c r="C73">
-        <v>-0.01907432856080489</v>
+        <v>0.02990063224796779</v>
       </c>
       <c r="D73">
-        <v>-0.06082152676251405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06890740498245698</v>
+      </c>
+      <c r="E73">
+        <v>0.05581952428628787</v>
+      </c>
+      <c r="F73">
+        <v>0.1058568298560408</v>
+      </c>
+      <c r="G73">
+        <v>0.01756293249645812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08658348773134791</v>
+        <v>0.08583090338858952</v>
       </c>
       <c r="C74">
-        <v>-0.003590657903490837</v>
+        <v>0.01041246700700857</v>
       </c>
       <c r="D74">
-        <v>-0.07498738118241453</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0811164556950628</v>
+      </c>
+      <c r="E74">
+        <v>0.01930466702428596</v>
+      </c>
+      <c r="F74">
+        <v>0.06609475642583831</v>
+      </c>
+      <c r="G74">
+        <v>0.005335781094203752</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1243152693611774</v>
+        <v>0.1163632173200679</v>
       </c>
       <c r="C75">
-        <v>-0.01881916450453064</v>
+        <v>0.02182016006054792</v>
       </c>
       <c r="D75">
-        <v>-0.05842207370425367</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.06033325930241403</v>
+      </c>
+      <c r="E75">
+        <v>0.05631610080120562</v>
+      </c>
+      <c r="F75">
+        <v>0.06294984421774344</v>
+      </c>
+      <c r="G75">
+        <v>-0.04106492995050076</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07310133689017026</v>
+        <v>0.08710996984052415</v>
       </c>
       <c r="C77">
-        <v>-0.1152410786010967</v>
+        <v>0.1137918946942053</v>
       </c>
       <c r="D77">
-        <v>-0.06705187442847757</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07589517681611799</v>
+      </c>
+      <c r="E77">
+        <v>-0.01009944698967858</v>
+      </c>
+      <c r="F77">
+        <v>-0.08424396746945408</v>
+      </c>
+      <c r="G77">
+        <v>-0.1102470865737179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.089083997779855</v>
+        <v>0.09306528630414006</v>
       </c>
       <c r="C78">
-        <v>-0.1272322668768792</v>
+        <v>0.1261197796779027</v>
       </c>
       <c r="D78">
-        <v>-0.07829310734656297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06059233729859805</v>
+      </c>
+      <c r="E78">
+        <v>-0.004193702766391563</v>
+      </c>
+      <c r="F78">
+        <v>-0.1211466542902269</v>
+      </c>
+      <c r="G78">
+        <v>-0.08979142641621068</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1678151538288963</v>
+        <v>0.1627175980002409</v>
       </c>
       <c r="C79">
-        <v>-0.0168371424186089</v>
+        <v>0.01756786629824984</v>
       </c>
       <c r="D79">
-        <v>-0.03031519025374045</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03488799854927631</v>
+      </c>
+      <c r="E79">
+        <v>0.03716128944559368</v>
+      </c>
+      <c r="F79">
+        <v>0.05526663483330319</v>
+      </c>
+      <c r="G79">
+        <v>-0.04164131520087461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07500258714835688</v>
+        <v>0.07323033668565955</v>
       </c>
       <c r="C80">
-        <v>-0.05845066775210613</v>
+        <v>0.05651690872763947</v>
       </c>
       <c r="D80">
-        <v>-0.01002683718868781</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.00505738163072367</v>
+      </c>
+      <c r="E80">
+        <v>0.06273593951252887</v>
+      </c>
+      <c r="F80">
+        <v>-0.1060502909775736</v>
+      </c>
+      <c r="G80">
+        <v>0.09490371522478834</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1119033147838546</v>
+        <v>0.1054680294090317</v>
       </c>
       <c r="C81">
-        <v>0.01629745163425166</v>
+        <v>-0.01259948418028642</v>
       </c>
       <c r="D81">
-        <v>-0.02710411761042909</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03215584342677243</v>
+      </c>
+      <c r="E81">
+        <v>0.06103497427157655</v>
+      </c>
+      <c r="F81">
+        <v>0.0704142907680103</v>
+      </c>
+      <c r="G81">
+        <v>-0.003754639510392747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1615003446231418</v>
+        <v>0.1578232467792468</v>
       </c>
       <c r="C82">
-        <v>0.02356421015408849</v>
+        <v>-0.01757450473925711</v>
       </c>
       <c r="D82">
-        <v>-0.08927833598938019</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09676508912876677</v>
+      </c>
+      <c r="E82">
+        <v>0.0008867765800034888</v>
+      </c>
+      <c r="F82">
+        <v>0.1061147331214872</v>
+      </c>
+      <c r="G82">
+        <v>0.005579997761016925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05385969858012615</v>
+        <v>0.04985580769731213</v>
       </c>
       <c r="C83">
-        <v>-0.0607139789359586</v>
+        <v>0.05671789985968968</v>
       </c>
       <c r="D83">
-        <v>0.01183743657021078</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01297584836337102</v>
+      </c>
+      <c r="E83">
+        <v>0.01499749213718339</v>
+      </c>
+      <c r="F83">
+        <v>-0.002727431284211754</v>
+      </c>
+      <c r="G83">
+        <v>-0.01526920405282792</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05166544033872371</v>
+        <v>0.04886253342379736</v>
       </c>
       <c r="C84">
-        <v>-0.07366014956492963</v>
+        <v>0.07151111827338739</v>
       </c>
       <c r="D84">
-        <v>-0.004398562292110208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.005335099609286346</v>
+      </c>
+      <c r="E84">
+        <v>0.0170379328451388</v>
+      </c>
+      <c r="F84">
+        <v>0.02094116234945667</v>
+      </c>
+      <c r="G84">
+        <v>-0.03013340966372154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.140822152945371</v>
+        <v>0.1347157940375967</v>
       </c>
       <c r="C85">
-        <v>-0.007402314978918779</v>
+        <v>0.01027234178083681</v>
       </c>
       <c r="D85">
-        <v>-0.0915141889470133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09130052291395778</v>
+      </c>
+      <c r="E85">
+        <v>0.01725205949721996</v>
+      </c>
+      <c r="F85">
+        <v>0.04698645529087531</v>
+      </c>
+      <c r="G85">
+        <v>-0.02666200815011276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08260742789957765</v>
+        <v>0.08039221007381687</v>
       </c>
       <c r="C86">
-        <v>-0.1003972642349742</v>
+        <v>0.101647488973665</v>
       </c>
       <c r="D86">
-        <v>0.4874901357424841</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.5517992859194839</v>
+      </c>
+      <c r="E86">
+        <v>0.4980988407504799</v>
+      </c>
+      <c r="F86">
+        <v>-0.4555232954305758</v>
+      </c>
+      <c r="G86">
+        <v>0.08482403132006662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08898318341898345</v>
+        <v>0.08741575725821565</v>
       </c>
       <c r="C87">
-        <v>-0.08675160617359247</v>
+        <v>0.08722390992642449</v>
       </c>
       <c r="D87">
-        <v>-0.05244811963042056</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0392867109506319</v>
+      </c>
+      <c r="E87">
+        <v>-0.09784539710914396</v>
+      </c>
+      <c r="F87">
+        <v>-0.100571829359016</v>
+      </c>
+      <c r="G87">
+        <v>0.05513155324470433</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06091932897573417</v>
+        <v>0.06029136062460298</v>
       </c>
       <c r="C88">
-        <v>-0.05922874368360214</v>
+        <v>0.06001160721180679</v>
       </c>
       <c r="D88">
-        <v>-0.01523985775603456</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.017736023419359</v>
+      </c>
+      <c r="E88">
+        <v>0.01329995630545412</v>
+      </c>
+      <c r="F88">
+        <v>0.02717907796758061</v>
+      </c>
+      <c r="G88">
+        <v>-0.01162730591132141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1481521503849149</v>
+        <v>0.150190803725803</v>
       </c>
       <c r="C89">
-        <v>0.1950545045869301</v>
+        <v>-0.2064546418970358</v>
       </c>
       <c r="D89">
-        <v>0.02243857090798908</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.03342484018286695</v>
+      </c>
+      <c r="E89">
+        <v>-0.08701133537318652</v>
+      </c>
+      <c r="F89">
+        <v>-0.09627608608826815</v>
+      </c>
+      <c r="G89">
+        <v>0.001054774748092586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.17634841922125</v>
+        <v>0.1829855283371838</v>
       </c>
       <c r="C90">
-        <v>0.2301566905338528</v>
+        <v>-0.2380965507059712</v>
       </c>
       <c r="D90">
-        <v>0.06374508398033306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.07204181252995873</v>
+      </c>
+      <c r="E90">
+        <v>-0.1350718921507048</v>
+      </c>
+      <c r="F90">
+        <v>-0.144621180422906</v>
+      </c>
+      <c r="G90">
+        <v>-0.01193376917419973</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1272064220342052</v>
+        <v>0.1212923451661975</v>
       </c>
       <c r="C91">
-        <v>0.02201791935713878</v>
+        <v>-0.01999634603426488</v>
       </c>
       <c r="D91">
-        <v>-0.02582301872066758</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02697830074135556</v>
+      </c>
+      <c r="E91">
+        <v>0.09572966983524801</v>
+      </c>
+      <c r="F91">
+        <v>0.1049882203319301</v>
+      </c>
+      <c r="G91">
+        <v>0.0107072330800939</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1709566637446943</v>
+        <v>0.1735690870113777</v>
       </c>
       <c r="C92">
-        <v>0.2648622871096233</v>
+        <v>-0.2765355298786317</v>
       </c>
       <c r="D92">
-        <v>0.06241720654848998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.06051846512889129</v>
+      </c>
+      <c r="E92">
+        <v>-0.08605300290810544</v>
+      </c>
+      <c r="F92">
+        <v>-0.1791080254438864</v>
+      </c>
+      <c r="G92">
+        <v>-0.0643755091696419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1769008929579052</v>
+        <v>0.1841761680033724</v>
       </c>
       <c r="C93">
-        <v>0.2229258468245461</v>
+        <v>-0.2296308070875322</v>
       </c>
       <c r="D93">
-        <v>0.03435194806245297</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.03397880966713328</v>
+      </c>
+      <c r="E93">
+        <v>-0.06493908456721668</v>
+      </c>
+      <c r="F93">
+        <v>-0.09498220749647755</v>
+      </c>
+      <c r="G93">
+        <v>-0.07012686927595357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.119211016020098</v>
+        <v>0.1133383189079024</v>
       </c>
       <c r="C94">
-        <v>-0.03257487510184915</v>
+        <v>0.0325597838479167</v>
       </c>
       <c r="D94">
-        <v>-0.05364491298286349</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.05306807079279695</v>
+      </c>
+      <c r="E94">
+        <v>0.05474236785171534</v>
+      </c>
+      <c r="F94">
+        <v>0.058490698215336</v>
+      </c>
+      <c r="G94">
+        <v>-0.03617108880211952</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1193062065029502</v>
+        <v>0.1219418002920863</v>
       </c>
       <c r="C95">
-        <v>-0.1079949453361092</v>
+        <v>0.115488827626923</v>
       </c>
       <c r="D95">
-        <v>-0.01188270450890476</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01662865789307266</v>
+      </c>
+      <c r="E95">
+        <v>0.04703085411191326</v>
+      </c>
+      <c r="F95">
+        <v>-0.05853176275212059</v>
+      </c>
+      <c r="G95">
+        <v>-0.01128820313421868</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.112837317455596</v>
+        <v>0.1117748385371595</v>
       </c>
       <c r="C96">
-        <v>-0.1129619285580934</v>
+        <v>0.1195161329829216</v>
       </c>
       <c r="D96">
-        <v>0.02326404434294519</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.001028647205261739</v>
+      </c>
+      <c r="E96">
+        <v>0.01895922718443365</v>
+      </c>
+      <c r="F96">
+        <v>0.08716856002087842</v>
+      </c>
+      <c r="G96">
+        <v>-0.08761698125255742</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1903335687972005</v>
+        <v>0.1952357060608299</v>
       </c>
       <c r="C97">
-        <v>0.001762682917253208</v>
+        <v>-0.00416902793539489</v>
       </c>
       <c r="D97">
-        <v>0.1125474868887106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1541495714139721</v>
+      </c>
+      <c r="E97">
+        <v>0.09076886791926723</v>
+      </c>
+      <c r="F97">
+        <v>0.2895183128198306</v>
+      </c>
+      <c r="G97">
+        <v>0.8248115039764726</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1988052938933946</v>
+        <v>0.2042191741403031</v>
       </c>
       <c r="C98">
-        <v>-0.0264541005161703</v>
+        <v>0.03180604195616921</v>
       </c>
       <c r="D98">
-        <v>0.1148047733874577</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1015319067440791</v>
+      </c>
+      <c r="E98">
+        <v>-0.02172861510206522</v>
+      </c>
+      <c r="F98">
+        <v>0.1014284414178575</v>
+      </c>
+      <c r="G98">
+        <v>-0.0110771179715545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05403566676039874</v>
+        <v>0.05366137900535121</v>
       </c>
       <c r="C99">
-        <v>-0.05187121541978791</v>
+        <v>0.05334358078856663</v>
       </c>
       <c r="D99">
-        <v>-0.007968811231613099</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.005988908062484783</v>
+      </c>
+      <c r="E99">
+        <v>0.008851764730040826</v>
+      </c>
+      <c r="F99">
+        <v>-0.03441086981515666</v>
+      </c>
+      <c r="G99">
+        <v>0.009561606662802435</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1176227314582299</v>
+        <v>0.1095870704029571</v>
       </c>
       <c r="C100">
-        <v>-0.4146537638461523</v>
+        <v>0.3798327323424799</v>
       </c>
       <c r="D100">
-        <v>0.4267988807075538</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.4764417252356973</v>
+      </c>
+      <c r="E100">
+        <v>-0.7125485333066838</v>
+      </c>
+      <c r="F100">
+        <v>0.01869322195787939</v>
+      </c>
+      <c r="G100">
+        <v>0.03248243401812535</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02349937492194638</v>
+        <v>0.02675838537395727</v>
       </c>
       <c r="C101">
-        <v>-0.04520928680815015</v>
+        <v>0.04320810111649314</v>
       </c>
       <c r="D101">
-        <v>-0.007389536043622869</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.006155716489149775</v>
+      </c>
+      <c r="E101">
+        <v>0.03164943350129244</v>
+      </c>
+      <c r="F101">
+        <v>-0.06924716472752679</v>
+      </c>
+      <c r="G101">
+        <v>-0.005091603425106522</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
